--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2338.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2338.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.248409163392106</v>
+        <v>0.7959397435188293</v>
       </c>
       <c r="B1">
-        <v>2.005146111542452</v>
+        <v>0.6540499925613403</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>0.5846021771430969</v>
       </c>
       <c r="D1">
-        <v>2.040005861964942</v>
+        <v>0.6453571915626526</v>
       </c>
       <c r="E1">
-        <v>0.7197050475058234</v>
+        <v>0.8075680136680603</v>
       </c>
     </row>
   </sheetData>
